--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-occ-entry-template.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-occ-entry-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AE65F-B551-6849-8E54-5388ED04468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C45B65-0451-3B4E-BEE2-20E015AC2B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15400" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A8DDB6DB-164F-B542-BF28-66A88C3A6BAE}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3992815A-7ACC-8D44-AE63-FC42D50D0265}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C4C6551D-B61A-0F47-BF4B-625CAEB4EF97}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DC918FF0-6C42-154A-906E-F3F11E405852}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{552BA6F0-B4A1-3441-A7FC-6A6D93AA887E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6724FA18-3C27-7E48-B066-6085B20E4AD7}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the verbatim name written in the field journal. Might be an abbreviation or the full name 
+          <t xml:space="preserve">the verbatim name written i the field journal. Might be an abbreviation or the full name 
 </t>
         </r>
         <r>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B42992FB-531D-9743-ADA0-2BD04AFE5FCA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{18E49801-57B3-8149-9475-367B95CA3597}">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C737CA67-21CB-4540-AEE9-D83B28E161DB}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{32AB31E2-2A4A-1F42-9CE7-9C64921ECF2B}">
       <text>
         <r>
           <rPr>
@@ -561,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{274940BF-7D64-7141-8417-AC7302876D53}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0A92BDBB-388E-C94B-9262-9FCC0BDCCCA2}">
       <text>
         <r>
           <rPr>
@@ -668,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DEAEAD63-48ED-2A4E-9FA0-F8A60DF75BFA}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FF453110-5C38-814E-B348-D1C982F1FF9E}">
       <text>
         <r>
           <rPr>
@@ -724,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DC1234B4-128B-9D44-9647-ACD44B00D397}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BFFF7124-B5D7-3949-8A39-282E0D666176}">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{144860E7-37A9-7442-9661-FC5E9C626D31}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3669B830-5A76-F149-91B0-94C001EBEEA2}">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{69A0DE11-3D9B-DD45-BD54-68EAC4E3B77F}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{EC3C8A79-BD47-E146-904B-13D88A8E5BA0}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{FA07C549-45F1-6843-BD8A-5C29B980EF43}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{43F375CA-812A-7F4A-8F5A-919C8B8A9C0D}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{56E53AC6-F7E8-414E-9269-60273345448B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{936D50D2-89C0-4240-910D-B8BDD7574E75}">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{0262923D-9B4C-7E48-B57E-DC6FA182E66C}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{25C1A9D8-91CA-474E-938D-C1851F17CBAB}">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D02977E1-488B-9F48-A6C9-AB421B4FC449}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{DB413F60-CF69-DB49-9523-B4DFC34D05BC}">
       <text>
         <r>
           <rPr>
@@ -1291,142 +1291,137 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">locationRemarks
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: poly 20
-</t>
+          <t xml:space="preserve">habitat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Defintion: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C09603FC-3352-834C-B4F5-F61FDEF58211}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C9AABCB0-924E-1340-BF9B-A79C0706950D}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">habitat 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Defintion: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{CD0706FF-5811-BF49-993E-D0941F3AA07B}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9F8360DB-2987-1F4C-A015-EB8B15925C12}">
       <text>
         <r>
           <rPr>
@@ -1512,20 +1507,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{83478F65-73DB-E043-B4E7-852EE638A389}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{707C6D15-E502-304C-BB70-E1D4B4500EBE}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">locationRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1551,41 +1559,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"HJC-2863"</t>
+          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: poly 20
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{600D10A9-A6C8-C642-81F6-27CD7835EAC6}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{634F7DEC-D989-FC47-A277-7CBB5E8F6C5C}">
       <text>
         <r>
           <rPr>
@@ -1682,7 +1682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{31FD17C0-D5AE-6F41-8345-1A4EFE68544A}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{53E3274C-A1E9-414A-9C65-0E017FEBC9DC}">
       <text>
         <r>
           <rPr>
@@ -1775,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{5B13E7B4-E6E7-D045-B018-8FAC95E81BC0}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{CA7DDD01-9221-D940-BDD2-6B3FF9DE2788}">
       <text>
         <r>
           <rPr>
@@ -1871,7 +1871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{B05819FB-05BF-4342-8D04-1FDAFB40A3C0}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{2EB4EFF3-BEED-814C-ADC8-0474901520E4}">
       <text>
         <r>
           <rPr>
@@ -1965,7 +1965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00D86AB6-65FF-F44F-B9EE-5D02C7CDA473}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{89019994-94F7-1046-88C9-4F728D7B9C4D}">
       <text>
         <r>
           <rPr>
@@ -2039,7 +2039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2410207F-8B4D-4246-9450-D9FC90711A12}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{24471DEC-4433-2240-A5B5-C425642195BA}">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{2B56D7A6-70C4-964C-B53F-5099151A0A9C}">
+    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{9175B14F-A0CA-E346-B84D-5C34F1AAC976}">
       <text>
         <r>
           <rPr>
@@ -2189,7 +2189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{D0775F8C-E8A1-D240-B257-347544436168}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00C3B976-85F3-D945-B982-ED16D0486D50}">
       <text>
         <r>
           <rPr>
@@ -2263,7 +2263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{6547EF21-25AE-6F4F-AF2D-4DBC5EF0E9B5}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{BFEED4C6-2582-3045-A29C-7C1087B535A2}">
       <text>
         <r>
           <rPr>
@@ -2338,7 +2338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{7FD26A50-5CA6-FE43-83AC-339CADE77507}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{1E3F7AC3-A84A-8F44-B6D4-611ED01BCD6B}">
       <text>
         <r>
           <rPr>
@@ -2384,7 +2384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{755321BC-C668-F042-8E31-CF64ED8C27AF}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{728503E1-0F69-3B4C-BF6A-7A6523D24E0C}">
       <text>
         <r>
           <rPr>
@@ -2496,12 +2496,6 @@
   </si>
   <si>
     <t>idBy</t>
-  </si>
-  <si>
-    <t>assOcc</t>
-  </si>
-  <si>
-    <t>assTaxa</t>
   </si>
   <si>
     <t>vTaxonRank</t>
@@ -2571,6 +2565,12 @@
   </si>
   <si>
     <t>idQualifier</t>
+  </si>
+  <si>
+    <t>assCollTaxa</t>
+  </si>
+  <si>
+    <t>assColl</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2730,6 +2730,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2754,7 +2757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3042,7 +3045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3052,10 +3055,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="AB7" sqref="L7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3097,65 +3100,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
@@ -3164,28 +3167,28 @@
         <v>5</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>6</v>
